--- a/final_data_pipeline/output/311514longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311514longform_elec_options.xlsx
@@ -603,7 +603,7 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -624,10 +624,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R2">
-        <v>1.741590909090909</v>
+        <v>1.554711451758341</v>
       </c>
       <c r="S2">
-        <v>1.89075</v>
+        <v>1.669946025515211</v>
       </c>
       <c r="T2">
         <v>27.60859777781749</v>
@@ -662,7 +662,7 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -677,10 +677,10 @@
         <v>435403.986983609</v>
       </c>
       <c r="R3">
-        <v>1.638125</v>
+        <v>1.475542118432027</v>
       </c>
       <c r="S3">
-        <v>1.764318181818182</v>
+        <v>1.575</v>
       </c>
       <c r="T3">
         <v>54.42549837295113</v>
@@ -721,7 +721,7 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L4">
         <v>8000</v>
@@ -742,10 +742,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R4">
-        <v>1.741590909090909</v>
+        <v>1.602020905923345</v>
       </c>
       <c r="S4">
-        <v>1.89075</v>
+        <v>1.725399239543726</v>
       </c>
       <c r="T4">
         <v>14.68118171422596</v>
@@ -780,7 +780,7 @@
         <v>42</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -795,10 +795,10 @@
         <v>231530.9565319821</v>
       </c>
       <c r="R5">
-        <v>1.638125</v>
+        <v>1.516977491961415</v>
       </c>
       <c r="S5">
-        <v>1.764318181818182</v>
+        <v>1.622926829268293</v>
       </c>
       <c r="T5">
         <v>28.94136956649777</v>
@@ -839,7 +839,7 @@
         <v>45</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -860,10 +860,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R6">
-        <v>1.741590909090909</v>
+        <v>1.782371783972741</v>
       </c>
       <c r="S6">
-        <v>1.89075</v>
+        <v>1.939565227172176</v>
       </c>
       <c r="T6">
         <v>38.45814560738724</v>
@@ -898,7 +898,7 @@
         <v>42</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -913,10 +913,10 @@
         <v>606507.8010918193</v>
       </c>
       <c r="R7">
-        <v>1.638125</v>
+        <v>1.673218141204726</v>
       </c>
       <c r="S7">
-        <v>1.764318181818182</v>
+        <v>1.805631235675374</v>
       </c>
       <c r="T7">
         <v>75.81347513647741</v>
@@ -1193,7 +1193,7 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1214,10 +1214,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R12">
-        <v>1.741590909090909</v>
+        <v>1.782371783972741</v>
       </c>
       <c r="S12">
-        <v>1.89075</v>
+        <v>1.939565227172176</v>
       </c>
       <c r="T12">
         <v>30.21073283001072</v>
@@ -1252,7 +1252,7 @@
         <v>42</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1267,10 +1267,10 @@
         <v>476441.2024739604</v>
       </c>
       <c r="R13">
-        <v>1.638125</v>
+        <v>1.673218141204726</v>
       </c>
       <c r="S13">
-        <v>1.764318181818182</v>
+        <v>1.805631235675374</v>
       </c>
       <c r="T13">
         <v>59.55515030924504</v>
@@ -1429,7 +1429,7 @@
         <v>45</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1450,10 +1450,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R16">
-        <v>1.741590909090909</v>
+        <v>1.782371783972741</v>
       </c>
       <c r="S16">
-        <v>1.89075</v>
+        <v>1.939565227172176</v>
       </c>
       <c r="T16">
         <v>41.66863039625731</v>
@@ -1488,7 +1488,7 @@
         <v>42</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1503,10 +1503,10 @@
         <v>657139.0533007737</v>
       </c>
       <c r="R17">
-        <v>1.638125</v>
+        <v>1.673218141204726</v>
       </c>
       <c r="S17">
-        <v>1.764318181818182</v>
+        <v>1.805631235675374</v>
       </c>
       <c r="T17">
         <v>82.14238166259672</v>
@@ -1547,7 +1547,7 @@
         <v>45</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1568,10 +1568,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R18">
-        <v>1.741590909090909</v>
+        <v>1.602020905923345</v>
       </c>
       <c r="S18">
-        <v>1.89075</v>
+        <v>1.725399239543726</v>
       </c>
       <c r="T18">
         <v>26.15884858761171</v>
@@ -1606,7 +1606,7 @@
         <v>42</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1621,10 +1621,10 @@
         <v>412540.5810757211</v>
       </c>
       <c r="R19">
-        <v>1.638125</v>
+        <v>1.516977491961415</v>
       </c>
       <c r="S19">
-        <v>1.764318181818182</v>
+        <v>1.622926829268293</v>
       </c>
       <c r="T19">
         <v>51.56757263446514</v>
@@ -1901,7 +1901,7 @@
         <v>45</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1922,10 +1922,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R24">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S24">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T24">
         <v>31.37674177223829</v>
@@ -1960,7 +1960,7 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L25">
         <v>8000</v>
@@ -1975,10 +1975,10 @@
         <v>494829.856124177</v>
       </c>
       <c r="R25">
-        <v>1.638125</v>
+        <v>1.720452734369724</v>
       </c>
       <c r="S25">
-        <v>1.764318181818182</v>
+        <v>1.861492917301914</v>
       </c>
       <c r="T25">
         <v>61.85373201552213</v>
@@ -2137,7 +2137,7 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -2158,10 +2158,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R28">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S28">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T28">
         <v>15.1503859429617</v>
@@ -2196,7 +2196,7 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2211,10 +2211,10 @@
         <v>238930.5859352999</v>
       </c>
       <c r="R29">
-        <v>1.638125</v>
+        <v>1.720452734369724</v>
       </c>
       <c r="S29">
-        <v>1.764318181818182</v>
+        <v>1.861492917301914</v>
       </c>
       <c r="T29">
         <v>29.86632324191248</v>
